--- a/InputData/elec/BHRbEF/BAU Heat Rate by Electricity Fuel.xlsx
+++ b/InputData/elec/BHRbEF/BAU Heat Rate by Electricity Fuel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -190,10 +190,10 @@
     <t>Preexisting Coal, Nuclear, and Petroleum</t>
   </si>
   <si>
-    <t>All Newly Build Sources</t>
-  </si>
-  <si>
     <t>Preexisting Natural Gas Peaker and Non-peaker</t>
+  </si>
+  <si>
+    <t>All Newly Built Sources</t>
   </si>
 </sst>
 </file>
@@ -347,6 +347,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -356,7 +357,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -630,7 +630,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,149 +642,149 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.7265625" customWidth="1"/>
+    <col min="2" max="2" width="63.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="29.1" x14ac:dyDescent="0.35">
       <c r="B21" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="17"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
+    <row r="28" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A28" s="14"/>
+    </row>
+    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="17"/>
+    <row r="32" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A32" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -804,32 +804,32 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="25.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="5"/>
+    <col min="1" max="1" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="25.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
@@ -846,7 +846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2004</v>
       </c>
@@ -863,7 +863,7 @@
         <v>10428</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2005</v>
       </c>
@@ -880,7 +880,7 @@
         <v>10436</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2006</v>
       </c>
@@ -897,7 +897,7 @@
         <v>10435</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2007</v>
       </c>
@@ -914,7 +914,7 @@
         <v>10489</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2008</v>
       </c>
@@ -931,7 +931,7 @@
         <v>10452</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2009</v>
       </c>
@@ -948,7 +948,7 @@
         <v>10459</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2010</v>
       </c>
@@ -965,7 +965,7 @@
         <v>10452</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2011</v>
       </c>
@@ -982,7 +982,7 @@
         <v>10464</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2012</v>
       </c>
@@ -999,7 +999,7 @@
         <v>10479</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2013</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>10449</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2014</v>
       </c>
@@ -1034,13 +1034,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1060,32 +1060,32 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="20.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="5"/>
+    <col min="1" max="1" width="25.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1102,16 +1102,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>2007</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>10489</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
@@ -1179,16 +1179,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>2008</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>10452</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1256,16 +1256,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
         <v>2009</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>10459</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
@@ -1333,16 +1333,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>2010</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>10452</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>16</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>17</v>
       </c>
@@ -1410,16 +1410,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
         <v>2011</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>13</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>10464</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>16</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>17</v>
       </c>
@@ -1487,16 +1487,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
         <v>2012</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>13</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>10479</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>14</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>16</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>17</v>
       </c>
@@ -1564,16 +1564,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
         <v>2013</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>13</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>10449</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>14</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>16</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>17</v>
       </c>
@@ -1641,16 +1641,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
         <v>2014</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>13</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>10459</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>14</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>16</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>17</v>
       </c>
@@ -1718,28 +1718,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="15" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A44:E44"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A44:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1754,11 +1754,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1773,7 +1773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>10375000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>10450000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>14500000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
